--- a/Data/EC/NIT-8904811928.xlsx
+++ b/Data/EC/NIT-8904811928.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F729B1-F448-4BB2-B24F-A77DE8DC2F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{285EFB61-BF01-4E2B-9063-A3A418268F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1831E551-1D4D-44AE-8BD0-A78DB4BB615C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CCE67383-AF24-4CBA-9A6B-967AED2CBC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="79">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,127 +71,7 @@
     <t>RAFAEL ENRIQUE YANEZ PALACIO</t>
   </si>
   <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>33262478</t>
-  </si>
-  <si>
-    <t>MYRIAM FUENTES ALPIST</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>32685751</t>
-  </si>
-  <si>
-    <t>CALINE MADRID JUNCO</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
   </si>
   <si>
     <t>9202259</t>
@@ -212,9 +92,6 @@
     <t>HELMER DAVID ARELLANO POLO</t>
   </si>
   <si>
-    <t>2401</t>
-  </si>
-  <si>
     <t>9203157</t>
   </si>
   <si>
@@ -225,12 +102,6 @@
   </si>
   <si>
     <t>RAFAEL IGNACIO MARRUGO MENDOZA</t>
-  </si>
-  <si>
-    <t>1052737525</t>
-  </si>
-  <si>
-    <t>JOSE DAVID AMAYA CERA</t>
   </si>
   <si>
     <t>9204804</t>
@@ -249,6 +120,126 @@
   </si>
   <si>
     <t>YONATAN VARGAS ALFARO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1052737525</t>
+  </si>
+  <si>
+    <t>JOSE DAVID AMAYA CERA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>32685751</t>
+  </si>
+  <si>
+    <t>CALINE MADRID JUNCO</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -347,7 +338,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -360,9 +353,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -562,23 +553,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,10 +597,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B05A776-1135-0C10-E754-17E1F645A49C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DDDFD3-0065-BA5D-53C6-3B5CDE6D49A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308A18E1-388D-43E4-927C-E2E344A8DCCF}">
-  <dimension ref="B2:J358"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A22FAD-2A2F-4E5C-8636-49CA8A7863C5}">
+  <dimension ref="B2:J357"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1038,7 +1029,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1083,7 +1074,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1115,12 +1106,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12437658</v>
+        <v>12397728</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1131,17 +1122,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1168,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1205,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>36341</v>
@@ -1228,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1251,13 +1242,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1274,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1297,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1320,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1343,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1366,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1395,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1412,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1435,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1458,13 +1449,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1481,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>36341</v>
@@ -1504,13 +1495,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1527,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1550,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1573,10 +1564,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>28</v>
@@ -1619,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1642,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1665,13 +1656,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
@@ -1688,13 +1679,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1711,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1734,13 +1725,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1757,13 +1748,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1780,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1809,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
@@ -1826,13 +1817,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1849,13 +1840,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1872,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
         <v>36341</v>
@@ -1895,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1918,13 +1909,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1941,13 +1932,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1964,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>39930</v>
+        <v>36341</v>
       </c>
       <c r="G50" s="18">
-        <v>998258</v>
+        <v>908526</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1987,19 +1978,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>129917</v>
+        <v>36341</v>
       </c>
       <c r="G51" s="18">
-        <v>3247906</v>
+        <v>908526</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2010,19 +2001,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>129917</v>
+        <v>36341</v>
       </c>
       <c r="G52" s="18">
-        <v>3247906</v>
+        <v>908526</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2033,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -2056,13 +2047,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -2079,13 +2070,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -2102,13 +2093,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2125,13 +2116,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2148,13 +2139,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2171,13 +2162,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2194,13 +2185,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2217,13 +2208,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2240,13 +2231,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2263,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2286,13 +2277,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2309,13 +2300,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2332,13 +2323,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2355,13 +2346,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2378,13 +2369,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2401,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2424,13 +2415,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
         <v>36341</v>
@@ -2447,13 +2438,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2470,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
         <v>36341</v>
@@ -2493,13 +2484,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F73" s="18">
         <v>36341</v>
@@ -2516,13 +2507,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2539,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>33</v>
@@ -2562,13 +2553,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F76" s="18">
         <v>36341</v>
@@ -2585,13 +2576,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F77" s="18">
         <v>36341</v>
@@ -2608,13 +2599,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F78" s="18">
         <v>36341</v>
@@ -2631,13 +2622,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F79" s="18">
         <v>36341</v>
@@ -2654,13 +2645,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F80" s="18">
         <v>36341</v>
@@ -2677,13 +2668,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F81" s="18">
         <v>36341</v>
@@ -2700,13 +2691,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F82" s="18">
         <v>36341</v>
@@ -2723,13 +2714,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F83" s="18">
         <v>36341</v>
@@ -2746,13 +2737,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F84" s="18">
         <v>36341</v>
@@ -2769,13 +2760,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F85" s="18">
         <v>36341</v>
@@ -2792,13 +2783,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F86" s="18">
         <v>36341</v>
@@ -2815,13 +2806,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F87" s="18">
         <v>36341</v>
@@ -2838,13 +2829,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F88" s="18">
         <v>36341</v>
@@ -2861,13 +2852,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F89" s="18">
         <v>36341</v>
@@ -2884,13 +2875,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F90" s="18">
         <v>36341</v>
@@ -2907,13 +2898,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F91" s="18">
         <v>36341</v>
@@ -2930,13 +2921,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F92" s="18">
         <v>36341</v>
@@ -2953,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F93" s="18">
         <v>36341</v>
@@ -2976,13 +2967,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F94" s="18">
         <v>36341</v>
@@ -2999,13 +2990,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F95" s="18">
         <v>36341</v>
@@ -3022,13 +3013,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F96" s="18">
         <v>36341</v>
@@ -3045,13 +3036,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F97" s="18">
         <v>36341</v>
@@ -3068,13 +3059,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
         <v>36341</v>
@@ -3091,13 +3082,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F99" s="18">
         <v>36341</v>
@@ -3114,13 +3105,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F100" s="18">
         <v>36341</v>
@@ -3137,13 +3128,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18">
         <v>36341</v>
@@ -3160,13 +3151,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F102" s="18">
         <v>36341</v>
@@ -3183,13 +3174,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F103" s="18">
         <v>36341</v>
@@ -3206,13 +3197,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F104" s="18">
         <v>36341</v>
@@ -3229,13 +3220,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F105" s="18">
         <v>36341</v>
@@ -3252,13 +3243,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F106" s="18">
         <v>36341</v>
@@ -3275,13 +3266,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F107" s="18">
         <v>36341</v>
@@ -3298,13 +3289,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F108" s="18">
         <v>36341</v>
@@ -3321,13 +3312,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F109" s="18">
         <v>36341</v>
@@ -3344,13 +3335,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F110" s="18">
         <v>36341</v>
@@ -3367,13 +3358,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F111" s="18">
         <v>36341</v>
@@ -3390,13 +3381,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F112" s="18">
         <v>36341</v>
@@ -3413,13 +3404,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F113" s="18">
         <v>36341</v>
@@ -3436,13 +3427,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F114" s="18">
         <v>36341</v>
@@ -3459,10 +3450,10 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>39</v>
@@ -3482,13 +3473,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F116" s="18">
         <v>36341</v>
@@ -3505,13 +3496,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F117" s="18">
         <v>36341</v>
@@ -3528,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F118" s="18">
         <v>36341</v>
@@ -3551,13 +3542,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F119" s="18">
         <v>36341</v>
@@ -3574,13 +3565,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F120" s="18">
         <v>36341</v>
@@ -3597,13 +3588,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F121" s="18">
         <v>36341</v>
@@ -3620,13 +3611,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F122" s="18">
         <v>36341</v>
@@ -3643,13 +3634,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F123" s="18">
         <v>36341</v>
@@ -3666,13 +3657,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F124" s="18">
         <v>36341</v>
@@ -3689,13 +3680,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F125" s="18">
         <v>36341</v>
@@ -3712,13 +3703,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F126" s="18">
         <v>36341</v>
@@ -3735,13 +3726,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F127" s="18">
         <v>36341</v>
@@ -3758,13 +3749,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F128" s="18">
         <v>36341</v>
@@ -3781,13 +3772,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F129" s="18">
         <v>36341</v>
@@ -3804,13 +3795,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F130" s="18">
         <v>36341</v>
@@ -3827,13 +3818,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F131" s="18">
         <v>36341</v>
@@ -3850,13 +3841,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F132" s="18">
         <v>36341</v>
@@ -3873,13 +3864,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F133" s="18">
         <v>36341</v>
@@ -3896,13 +3887,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F134" s="18">
         <v>36341</v>
@@ -3919,13 +3910,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F135" s="18">
         <v>36341</v>
@@ -3942,13 +3933,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F136" s="18">
         <v>36341</v>
@@ -3965,13 +3956,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F137" s="18">
         <v>36341</v>
@@ -3988,13 +3979,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F138" s="18">
         <v>36341</v>
@@ -4011,13 +4002,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F139" s="18">
         <v>36341</v>
@@ -4034,13 +4025,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F140" s="18">
         <v>36341</v>
@@ -4057,13 +4048,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F141" s="18">
         <v>36341</v>
@@ -4080,13 +4071,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F142" s="18">
         <v>36341</v>
@@ -4103,13 +4094,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F143" s="18">
         <v>36341</v>
@@ -4126,13 +4117,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F144" s="18">
         <v>36341</v>
@@ -4149,13 +4140,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F145" s="18">
         <v>36341</v>
@@ -4172,13 +4163,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F146" s="18">
         <v>36341</v>
@@ -4195,13 +4186,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F147" s="18">
         <v>36341</v>
@@ -4218,13 +4209,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F148" s="18">
         <v>36341</v>
@@ -4241,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F149" s="18">
         <v>36341</v>
@@ -4264,13 +4255,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F150" s="18">
         <v>36341</v>
@@ -4287,13 +4278,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F151" s="18">
         <v>36341</v>
@@ -4310,13 +4301,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F152" s="18">
         <v>36341</v>
@@ -4333,13 +4324,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" s="18">
         <v>36341</v>
@@ -4356,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E154" s="16" t="s">
         <v>43</v>
@@ -4379,13 +4370,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F155" s="18">
         <v>36341</v>
@@ -4402,13 +4393,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F156" s="18">
         <v>36341</v>
@@ -4425,13 +4416,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F157" s="18">
         <v>36341</v>
@@ -4448,13 +4439,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F158" s="18">
         <v>36341</v>
@@ -4471,13 +4462,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F159" s="18">
         <v>36341</v>
@@ -4494,13 +4485,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F160" s="18">
         <v>36341</v>
@@ -4517,13 +4508,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F161" s="18">
         <v>36341</v>
@@ -4540,13 +4531,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F162" s="18">
         <v>36341</v>
@@ -4563,13 +4554,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F163" s="18">
         <v>36341</v>
@@ -4586,13 +4577,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F164" s="18">
         <v>36341</v>
@@ -4609,13 +4600,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F165" s="18">
         <v>36341</v>
@@ -4632,13 +4623,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F166" s="18">
         <v>36341</v>
@@ -4655,13 +4646,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F167" s="18">
         <v>36341</v>
@@ -4678,13 +4669,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F168" s="18">
         <v>36341</v>
@@ -4701,13 +4692,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F169" s="18">
         <v>36341</v>
@@ -4724,13 +4715,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F170" s="18">
         <v>36341</v>
@@ -4747,13 +4738,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F171" s="18">
         <v>36341</v>
@@ -4770,13 +4761,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F172" s="18">
         <v>36341</v>
@@ -4793,13 +4784,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F173" s="18">
         <v>36341</v>
@@ -4816,13 +4807,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F174" s="18">
         <v>36341</v>
@@ -4839,13 +4830,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F175" s="18">
         <v>36341</v>
@@ -4862,13 +4853,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F176" s="18">
         <v>36341</v>
@@ -4885,13 +4876,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F177" s="18">
         <v>36341</v>
@@ -4908,13 +4899,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F178" s="18">
         <v>36341</v>
@@ -4931,13 +4922,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F179" s="18">
         <v>36341</v>
@@ -4954,13 +4945,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F180" s="18">
         <v>36341</v>
@@ -4977,13 +4968,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F181" s="18">
         <v>36341</v>
@@ -5000,13 +4991,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F182" s="18">
         <v>36341</v>
@@ -5023,13 +5014,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F183" s="18">
         <v>36341</v>
@@ -5046,13 +5037,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F184" s="18">
         <v>36341</v>
@@ -5069,13 +5060,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F185" s="18">
         <v>36341</v>
@@ -5092,13 +5083,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F186" s="18">
         <v>36341</v>
@@ -5115,13 +5106,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F187" s="18">
         <v>36341</v>
@@ -5138,13 +5129,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F188" s="18">
         <v>36341</v>
@@ -5161,13 +5152,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F189" s="18">
         <v>36341</v>
@@ -5184,13 +5175,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F190" s="18">
         <v>36341</v>
@@ -5207,13 +5198,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F191" s="18">
         <v>36341</v>
@@ -5230,13 +5221,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F192" s="18">
         <v>36341</v>
@@ -5253,13 +5244,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F193" s="18">
         <v>36341</v>
@@ -5276,13 +5267,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F194" s="18">
         <v>36341</v>
@@ -5299,13 +5290,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F195" s="18">
         <v>36341</v>
@@ -5322,13 +5313,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F196" s="18">
         <v>36341</v>
@@ -5345,13 +5336,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F197" s="18">
         <v>36341</v>
@@ -5368,13 +5359,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F198" s="18">
         <v>36341</v>
@@ -5391,13 +5382,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F199" s="18">
         <v>36341</v>
@@ -5414,13 +5405,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F200" s="18">
         <v>36341</v>
@@ -5437,13 +5428,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F201" s="18">
         <v>36341</v>
@@ -5460,13 +5451,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F202" s="18">
         <v>36341</v>
@@ -5483,13 +5474,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F203" s="18">
         <v>36341</v>
@@ -5506,13 +5497,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F204" s="18">
         <v>36341</v>
@@ -5529,13 +5520,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F205" s="18">
         <v>36341</v>
@@ -5552,13 +5543,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F206" s="18">
         <v>36341</v>
@@ -5575,13 +5566,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F207" s="18">
         <v>36341</v>
@@ -5598,13 +5589,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F208" s="18">
         <v>36341</v>
@@ -5621,13 +5612,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F209" s="18">
         <v>36341</v>
@@ -5644,13 +5635,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F210" s="18">
         <v>36341</v>
@@ -5667,13 +5658,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F211" s="18">
         <v>36341</v>
@@ -5690,13 +5681,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F212" s="18">
         <v>36341</v>
@@ -5713,13 +5704,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F213" s="18">
         <v>36341</v>
@@ -5736,13 +5727,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F214" s="18">
         <v>36341</v>
@@ -5759,13 +5750,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F215" s="18">
         <v>36341</v>
@@ -5782,13 +5773,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F216" s="18">
         <v>36341</v>
@@ -5805,13 +5796,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F217" s="18">
         <v>36341</v>
@@ -5828,13 +5819,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F218" s="18">
         <v>36341</v>
@@ -5851,13 +5842,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F219" s="18">
         <v>36341</v>
@@ -5874,13 +5865,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F220" s="18">
         <v>36341</v>
@@ -5897,13 +5888,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F221" s="18">
         <v>36341</v>
@@ -5920,13 +5911,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F222" s="18">
         <v>36341</v>
@@ -5943,13 +5934,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F223" s="18">
         <v>36341</v>
@@ -5966,13 +5957,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F224" s="18">
         <v>36341</v>
@@ -5989,13 +5980,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F225" s="18">
         <v>36341</v>
@@ -6012,13 +6003,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F226" s="18">
         <v>36341</v>
@@ -6035,13 +6026,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F227" s="18">
         <v>36341</v>
@@ -6058,13 +6049,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F228" s="18">
         <v>36341</v>
@@ -6081,13 +6072,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F229" s="18">
         <v>36341</v>
@@ -6104,13 +6095,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F230" s="18">
         <v>36341</v>
@@ -6127,13 +6118,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F231" s="18">
         <v>36341</v>
@@ -6150,13 +6141,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F232" s="18">
         <v>36341</v>
@@ -6173,13 +6164,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F233" s="18">
         <v>36341</v>
@@ -6196,13 +6187,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F234" s="18">
         <v>36341</v>
@@ -6219,13 +6210,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F235" s="18">
         <v>36341</v>
@@ -6242,13 +6233,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F236" s="18">
         <v>36341</v>
@@ -6265,13 +6256,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F237" s="18">
         <v>36341</v>
@@ -6288,13 +6279,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F238" s="18">
         <v>36341</v>
@@ -6311,13 +6302,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F239" s="18">
         <v>36341</v>
@@ -6334,13 +6325,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F240" s="18">
         <v>36341</v>
@@ -6357,13 +6348,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F241" s="18">
         <v>36341</v>
@@ -6380,13 +6371,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F242" s="18">
         <v>36341</v>
@@ -6403,13 +6394,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F243" s="18">
         <v>36341</v>
@@ -6426,13 +6417,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F244" s="18">
         <v>36341</v>
@@ -6449,13 +6440,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F245" s="18">
         <v>36341</v>
@@ -6472,13 +6463,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F246" s="18">
         <v>36341</v>
@@ -6495,13 +6486,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F247" s="18">
         <v>36341</v>
@@ -6518,13 +6509,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F248" s="18">
         <v>36341</v>
@@ -6541,13 +6532,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F249" s="18">
         <v>36341</v>
@@ -6564,13 +6555,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F250" s="18">
         <v>36341</v>
@@ -6587,13 +6578,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F251" s="18">
         <v>36341</v>
@@ -6610,13 +6601,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F252" s="18">
         <v>36341</v>
@@ -6633,13 +6624,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F253" s="18">
         <v>36341</v>
@@ -6656,13 +6647,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F254" s="18">
         <v>36341</v>
@@ -6679,13 +6670,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F255" s="18">
         <v>36341</v>
@@ -6702,13 +6693,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F256" s="18">
         <v>36341</v>
@@ -6725,13 +6716,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F257" s="18">
         <v>36341</v>
@@ -6748,13 +6739,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F258" s="18">
         <v>36341</v>
@@ -6771,13 +6762,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F259" s="18">
         <v>36341</v>
@@ -6794,13 +6785,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F260" s="18">
         <v>36341</v>
@@ -6817,13 +6808,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F261" s="18">
         <v>36341</v>
@@ -6840,13 +6831,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F262" s="18">
         <v>36341</v>
@@ -6863,13 +6854,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F263" s="18">
         <v>36341</v>
@@ -6886,13 +6877,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F264" s="18">
         <v>36341</v>
@@ -6909,13 +6900,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F265" s="18">
         <v>36341</v>
@@ -6932,13 +6923,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F266" s="18">
         <v>36341</v>
@@ -6955,13 +6946,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F267" s="18">
         <v>36341</v>
@@ -6978,13 +6969,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F268" s="18">
         <v>36341</v>
@@ -7001,13 +6992,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F269" s="18">
         <v>36341</v>
@@ -7024,13 +7015,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F270" s="18">
         <v>36341</v>
@@ -7047,13 +7038,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F271" s="18">
         <v>36341</v>
@@ -7070,13 +7061,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F272" s="18">
         <v>36341</v>
@@ -7093,13 +7084,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F273" s="18">
         <v>36341</v>
@@ -7116,13 +7107,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F274" s="18">
         <v>36341</v>
@@ -7139,13 +7130,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F275" s="18">
         <v>36341</v>
@@ -7162,13 +7153,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F276" s="18">
         <v>36341</v>
@@ -7185,13 +7176,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F277" s="18">
         <v>36341</v>
@@ -7208,13 +7199,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F278" s="18">
         <v>36341</v>
@@ -7231,13 +7222,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F279" s="18">
         <v>36341</v>
@@ -7254,13 +7245,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F280" s="18">
         <v>36341</v>
@@ -7277,13 +7268,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F281" s="18">
         <v>36341</v>
@@ -7300,13 +7291,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F282" s="18">
         <v>36341</v>
@@ -7323,13 +7314,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F283" s="18">
         <v>36341</v>
@@ -7346,13 +7337,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F284" s="18">
         <v>36341</v>
@@ -7369,13 +7360,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F285" s="18">
         <v>36341</v>
@@ -7392,13 +7383,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F286" s="18">
         <v>36341</v>
@@ -7415,13 +7406,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F287" s="18">
         <v>36341</v>
@@ -7438,13 +7429,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F288" s="18">
         <v>36341</v>
@@ -7461,13 +7452,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F289" s="18">
         <v>36341</v>
@@ -7484,13 +7475,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F290" s="18">
         <v>36341</v>
@@ -7507,13 +7498,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F291" s="18">
         <v>36341</v>
@@ -7530,13 +7521,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F292" s="18">
         <v>36341</v>
@@ -7553,13 +7544,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F293" s="18">
         <v>36341</v>
@@ -7576,13 +7567,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F294" s="18">
         <v>36341</v>
@@ -7599,13 +7590,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F295" s="18">
         <v>36341</v>
@@ -7622,13 +7613,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F296" s="18">
         <v>36341</v>
@@ -7645,13 +7636,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F297" s="18">
         <v>36341</v>
@@ -7668,13 +7659,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F298" s="18">
         <v>36341</v>
@@ -7691,13 +7682,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F299" s="18">
         <v>36341</v>
@@ -7714,13 +7705,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F300" s="18">
         <v>36341</v>
@@ -7737,13 +7728,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F301" s="18">
         <v>36341</v>
@@ -7760,13 +7751,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F302" s="18">
         <v>36341</v>
@@ -7783,13 +7774,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F303" s="18">
         <v>36341</v>
@@ -7806,13 +7797,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F304" s="18">
         <v>36341</v>
@@ -7829,13 +7820,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F305" s="18">
         <v>36341</v>
@@ -7852,13 +7843,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F306" s="18">
         <v>36341</v>
@@ -7875,13 +7866,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F307" s="18">
         <v>36341</v>
@@ -7898,13 +7889,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F308" s="18">
         <v>36341</v>
@@ -7921,13 +7912,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F309" s="18">
         <v>36341</v>
@@ -7944,13 +7935,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F310" s="18">
         <v>36341</v>
@@ -7967,13 +7958,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F311" s="18">
         <v>36341</v>
@@ -7990,13 +7981,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F312" s="18">
         <v>36341</v>
@@ -8013,13 +8004,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F313" s="18">
         <v>36341</v>
@@ -8036,13 +8027,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F314" s="18">
         <v>36341</v>
@@ -8059,13 +8050,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F315" s="18">
         <v>36341</v>
@@ -8082,13 +8073,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F316" s="18">
         <v>36341</v>
@@ -8105,13 +8096,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F317" s="18">
         <v>36341</v>
@@ -8128,13 +8119,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F318" s="18">
         <v>36341</v>
@@ -8151,13 +8142,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F319" s="18">
         <v>36341</v>
@@ -8174,13 +8165,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F320" s="18">
         <v>36341</v>
@@ -8197,13 +8188,13 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F321" s="18">
         <v>36341</v>
@@ -8220,13 +8211,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F322" s="18">
         <v>36341</v>
@@ -8243,13 +8234,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F323" s="18">
         <v>36341</v>
@@ -8266,13 +8257,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F324" s="18">
         <v>36341</v>
@@ -8289,13 +8280,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F325" s="18">
         <v>36341</v>
@@ -8312,13 +8303,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F326" s="18">
         <v>36341</v>
@@ -8335,13 +8326,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F327" s="18">
         <v>36341</v>
@@ -8358,13 +8349,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F328" s="18">
         <v>36341</v>
@@ -8381,13 +8372,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F329" s="18">
         <v>36341</v>
@@ -8404,13 +8395,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F330" s="18">
         <v>36341</v>
@@ -8427,13 +8418,13 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F331" s="18">
         <v>36341</v>
@@ -8450,13 +8441,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F332" s="18">
         <v>36341</v>
@@ -8473,13 +8464,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F333" s="18">
         <v>36341</v>
@@ -8496,13 +8487,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F334" s="18">
         <v>36341</v>
@@ -8519,13 +8510,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F335" s="18">
         <v>36341</v>
@@ -8542,13 +8533,13 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F336" s="18">
         <v>36341</v>
@@ -8565,13 +8556,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F337" s="18">
         <v>36341</v>
@@ -8588,13 +8579,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F338" s="18">
         <v>36341</v>
@@ -8611,13 +8602,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F339" s="18">
         <v>36341</v>
@@ -8634,13 +8625,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F340" s="18">
         <v>36341</v>
@@ -8657,13 +8648,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F341" s="18">
         <v>36341</v>
@@ -8680,13 +8671,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F342" s="18">
         <v>36341</v>
@@ -8703,13 +8694,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F343" s="18">
         <v>36341</v>
@@ -8726,13 +8717,13 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F344" s="18">
         <v>36341</v>
@@ -8749,13 +8740,13 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F345" s="18">
         <v>36341</v>
@@ -8772,13 +8763,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F346" s="18">
         <v>36341</v>
@@ -8795,13 +8786,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F347" s="18">
         <v>36341</v>
@@ -8818,13 +8809,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F348" s="18">
         <v>36341</v>
@@ -8841,13 +8832,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F349" s="18">
         <v>36341</v>
@@ -8864,98 +8855,75 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F350" s="18">
-        <v>36341</v>
+        <v>129917</v>
       </c>
       <c r="G350" s="18">
-        <v>908526</v>
+        <v>3475259</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
       <c r="J350" s="20"/>
     </row>
     <row r="351" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B351" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C351" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D351" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F351" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G351" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H351" s="19"/>
-      <c r="I351" s="19"/>
-      <c r="J351" s="20"/>
-    </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B352" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C352" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D352" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E352" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F352" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G352" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H352" s="25"/>
-      <c r="I352" s="25"/>
-      <c r="J352" s="26"/>
+      <c r="B351" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D351" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E351" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F351" s="24">
+        <v>129917</v>
+      </c>
+      <c r="G351" s="24">
+        <v>3475259</v>
+      </c>
+      <c r="H351" s="25"/>
+      <c r="I351" s="25"/>
+      <c r="J351" s="26"/>
+    </row>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B356" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C356" s="32"/>
+      <c r="H356" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B357" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C357" s="32"/>
       <c r="H357" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B358" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C358" s="32"/>
-      <c r="H358" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B358:C358"/>
     <mergeCell ref="B357:C357"/>
-    <mergeCell ref="H358:J358"/>
+    <mergeCell ref="B356:C356"/>
     <mergeCell ref="H357:J357"/>
+    <mergeCell ref="H356:J356"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
